--- a/docs/Binary Space - QA.xlsx
+++ b/docs/Binary Space - QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimityr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRDimov21\Desktop\2223-9th-grade-sprint-math-games-binary-space\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81975ACE-DFC7-4B66-B578-530B27119128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B471C-573B-4728-8737-DE6821123F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{163BBDF3-12D6-4970-90D8-D2C0AC8E3C07}"/>
   </bookViews>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -135,10 +124,10 @@
     <t>decimalToBinary()</t>
   </si>
   <si>
-    <t>Applies the and nand gate to a parsed string</t>
-  </si>
-  <si>
     <t>Applies the and nand gate to a  parsed string</t>
+  </si>
+  <si>
+    <t>The function generates random binary string</t>
   </si>
 </sst>
 </file>
@@ -413,8 +402,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,42 +473,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,19 +488,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Добър" xfId="1" builtinId="26"/>
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Нормален 2" xfId="2" xr:uid="{A3C10892-153A-4DA2-BB0A-F47288498E90}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -559,7 +551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -665,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,74 +813,74 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -909,38 +901,38 @@
       <c r="L9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <v>44898</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
@@ -951,14 +943,14 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="12" t="s">
@@ -967,72 +959,62 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="M12" s="24"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="20" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="20" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="2:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="26" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="17" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="I11:K11"/>
@@ -1047,6 +1029,16 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:F12"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:M12">
     <cfRule type="colorScale" priority="1">
@@ -1069,79 +1061,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3326105-EC1D-464F-BF2C-AED8903191CB}">
   <dimension ref="C3:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1162,38 +1154,38 @@
       <c r="M10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="16">
+      <c r="J11" s="11">
         <v>45202</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1204,14 +1196,14 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="12" t="s">
@@ -1220,72 +1212,72 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
+      <c r="N13" s="24"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="20" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="20" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="3:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="19" t="s">
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="3:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="17" t="s">
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1306,38 +1298,38 @@
       <c r="M20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="16">
+      <c r="J21" s="11">
         <v>45202</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1348,14 +1340,14 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="13"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="12" t="s">
@@ -1364,70 +1356,70 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="19" t="s">
+      <c r="N23" s="24"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="20" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20" t="s">
+      <c r="J26" s="10"/>
+      <c r="K26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="20" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="3:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="19" t="s">
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="3:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="17" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="N27" s="4"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="11" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -1448,38 +1440,38 @@
       <c r="M30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="16">
+      <c r="J31" s="11">
         <v>45202</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C32" s="13"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="13" t="s">
         <v>10</v>
       </c>
@@ -1490,14 +1482,14 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="13"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="12" t="s">
@@ -1506,70 +1498,70 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="19" t="s">
+      <c r="N33" s="24"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="20" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="20" t="s">
+      <c r="H36" s="10"/>
+      <c r="I36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="20" t="s">
+      <c r="J36" s="10"/>
+      <c r="K36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="20" t="s">
+      <c r="L36" s="10"/>
+      <c r="M36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="22"/>
-    </row>
-    <row r="37" spans="3:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="19" t="s">
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="3:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="17" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="10" t="s">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="11" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -1590,38 +1582,38 @@
       <c r="M41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="N41" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="13"/>
-      <c r="J42" s="16">
+      <c r="J42" s="11">
         <v>45202</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="13" t="s">
         <v>10</v>
       </c>
@@ -1632,14 +1624,14 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="24"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="12" t="s">
@@ -1648,70 +1640,70 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="13"/>
-      <c r="N44" s="14"/>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C47" s="19" t="s">
+      <c r="N44" s="24"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="20" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="20" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="20" t="s">
+      <c r="J47" s="10"/>
+      <c r="K47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="20" t="s">
+      <c r="L47" s="10"/>
+      <c r="M47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N47" s="22"/>
-    </row>
-    <row r="48" spans="3:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="19" t="s">
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="3:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="17" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="11" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -1732,38 +1724,38 @@
       <c r="M51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="N51" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I52" s="13"/>
-      <c r="J52" s="16">
+      <c r="J52" s="11">
         <v>45202</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="13"/>
-      <c r="N52" s="14"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="24"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="13"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="13" t="s">
         <v>10</v>
       </c>
@@ -1774,14 +1766,14 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="13"/>
-      <c r="N53" s="14"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="24"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C54" s="13"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="12" t="s">
@@ -1790,146 +1782,64 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="13"/>
-      <c r="N54" s="14"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C57" s="19" t="s">
+      <c r="N54" s="24"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="20" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="20" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="20" t="s">
+      <c r="J57" s="10"/>
+      <c r="K57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="20" t="s">
+      <c r="L57" s="10"/>
+      <c r="M57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N57" s="22"/>
-    </row>
-    <row r="58" spans="3:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="19" t="s">
+      <c r="N57" s="10"/>
+    </row>
+    <row r="58" spans="3:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="17" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N58" s="18"/>
+      <c r="N58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:G54"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C40:N40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:G44"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:G33"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:G23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="C4:N6"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
@@ -1944,16 +1854,98 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C4:N6"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:G23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:G33"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C40:N40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:G44"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:G54"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:N13">
     <cfRule type="colorScale" priority="5">
